--- a/biology/Zoologie/Abeille_japonaise/Abeille_japonaise.xlsx
+++ b/biology/Zoologie/Abeille_japonaise/Abeille_japonaise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Apis cerana japonica
 L'Abeille japonaise (Apis cerana japonica) ou Abeille du Japon, est une abeille à miel native du Japon. Elle est une sous-espèce de l'abeille asiatique. À l'aide d'une analyse de l'ADN mitochondrial, cette sous-espèce a été déterminée comme originaire de la péninsule coréenne. Peuplant essentiellement les régions montagneuses du Japon, l'abeille japonaise a été également observée en zones urbaines lorsqu'il y a absence de prédateurs naturels.
 L'abeille japonaise est très résistante à l'acarien Varroa jacobsoni, un parasite que l'on retrouve couramment chez l'abeille asiatique. Elle est également capable de s'adapter à des conditions météorologiques extrêmes ainsi qu'à une longue durée de vol. Enfin, elle est moins susceptible de piquer que son homologue occidental.
-Contrairement aux abeilles européennes importées, qui se sont laissées massacrer par l'attaque de frelons, l'espèce japonaise est mieux préparée. À force de sélections naturelles, elles ont développé les moyens de se protéger des frelons, sans même utiliser leur dard.[1]
+Contrairement aux abeilles européennes importées, qui se sont laissées massacrer par l'attaque de frelons, l'espèce japonaise est mieux préparée. À force de sélections naturelles, elles ont développé les moyens de se protéger des frelons, sans même utiliser leur dard.
 </t>
         </is>
       </c>
